--- a/results/tables/table_S4.xlsx
+++ b/results/tables/table_S4.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topology" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Gene Essentiality" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Differential transcription" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="285">
   <si>
     <t xml:space="preserve">Transcriptome:</t>
   </si>
@@ -849,6 +850,33 @@
   </si>
   <si>
     <t xml:space="preserve">b2285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcript abundance (RPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9+glc aerobic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THD2pp = b1602 (pntB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THD2pp = b1603 (pntA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3PD2 = b3608 (gpsA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTHFD = b0529 (folD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB aerobic</t>
   </si>
 </sst>
 </file>
@@ -943,7 +971,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +1012,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,17 +1052,17 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -4369,4 +4401,133 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>